--- a/Illumine_dataset.xlsx
+++ b/Illumine_dataset.xlsx
@@ -12,20 +12,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>NDL status</t>
+  </si>
+  <si>
+    <t>OA button</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
   <si>
     <t>NDLI</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>IEEE/ACM Transactions on Networking</t>
   </si>
   <si>
     <t>OA Button</t>
   </si>
   <si>
-    <t>Google Scholar</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -47,51 +56,36 @@
     <t>Total%</t>
   </si>
   <si>
-    <t>IEEE/ACM Transactions on Networking</t>
-  </si>
-  <si>
-    <t>NDL status</t>
-  </si>
-  <si>
-    <t>OA button</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
     <t>2016 Vol 24</t>
   </si>
   <si>
     <t>Optimal Embedding of Functions for In-Network Computation: Complexity Analysis and Algorithms</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>Compressing IP Forwarding Tables: Towards Entropy Bounds and Beyond</t>
   </si>
   <si>
     <t>IEEE Transactions on Pattern Analysis and Machine Intelligence</t>
   </si>
   <si>
-    <t>Compressing IP Forwarding Tables: Towards Entropy Bounds and Beyond</t>
-  </si>
-  <si>
     <t>Perceptions and Truth: A Mechanism Design Approach to Crowd-Sourcing Reputation</t>
   </si>
   <si>
+    <t>1 click</t>
+  </si>
+  <si>
+    <t>2 click</t>
+  </si>
+  <si>
+    <t>1 click%</t>
+  </si>
+  <si>
+    <t>2 click%</t>
+  </si>
+  <si>
     <t>Diffusion LMS Strategies in Sensor Networks With Noisy Input Data</t>
   </si>
   <si>
-    <t>1 click</t>
-  </si>
-  <si>
-    <t>2 click</t>
-  </si>
-  <si>
-    <t>1 click%</t>
-  </si>
-  <si>
-    <t>2 click%</t>
-  </si>
-  <si>
     <t>Information Source Detection in the SIR Model: A Sample-Path-Based Approach</t>
   </si>
   <si>
@@ -194,6 +188,9 @@
     <t>A Generalized Probabilistic Framework for Compact Codebook Creation</t>
   </si>
   <si>
+    <t>Robust vertex classification</t>
+  </si>
+  <si>
     <t>Gauge Invariant Framework for Shape Analysis of Surfaces</t>
   </si>
   <si>
@@ -203,7 +200,7 @@
     <t>Object Proposal Generation using Two-Stage Cascade SVMs</t>
   </si>
   <si>
-    <t>Template-Based Monocular 3D Shape Recovery Using Laplacian Meshes Publisher: IEEE</t>
+    <t>Template-Based Monocular 3D Shape Recovery Using Laplacian Meshes</t>
   </si>
   <si>
     <t>Fast Direct Methods for Gaussian Processes</t>
@@ -255,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -263,14 +260,13 @@
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -278,12 +274,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <color rgb="FF93C47D"/>
       <name val="Arial"/>
     </font>
@@ -299,6 +297,11 @@
     <font>
       <b/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF93C47D"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -321,6 +324,11 @@
       <b/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF6AA84F"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -336,6 +344,7 @@
     </font>
     <font>
       <u/>
+      <sz val="10.0"/>
       <color rgb="FF6AA84F"/>
       <name val="Arial"/>
     </font>
@@ -347,12 +356,6 @@
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
-      <color rgb="FF6AA84F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
@@ -365,11 +368,6 @@
       <b/>
       <sz val="18.0"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF333333"/>
-      <name val="Sans-serif"/>
     </font>
     <font>
       <b/>
@@ -386,6 +384,17 @@
       <sz val="11.0"/>
       <color rgb="FF6AA84F"/>
       <name val="Inconsolata"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF333333"/>
+      <name val="Sans-serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF6AA84F"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -422,7 +431,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -430,17 +445,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -460,84 +469,84 @@
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,347 +580,352 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx0-OUKG2_RUE5-MU1HbnJWfLBXzb6kMNcZ_5Fn8XL4UUO9t0ZAm-hUPuCawacyMuuJ18dqINOljSSVAs7JjvJieENXYWk-qzrkHbr9WLbinH","Open")</f>
+        <v>Open</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/kNoIubvVfIoDob717suHDPJvcUM1vWCFVfF2HXq-M7mcQCBPuexBF3WFuSgM_rn0l1lfmlolhHoziHee40isNA","Open")</f>
+        <v>Open</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>17</v>
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx70mAb6h0V_1fbUQxOyc3PTtt6bcqll-IKJckHSHVBJPEEoqaYtTspMV85FzGisswtVNhSNC7mfWIehY7SM_cMR_r_Q0dvlQa9aieEauOpSc","Open")</f>
+        <v>Open</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx-DyWLzvdJMF22vVZ63qfzpYp2VwtsCcGtltqUhnqDSQl-QJ_2ojNm2ywa6xoDGwTjTf4g34jcMJjhg3Cq2iC0SU9OCUC4hKr_uWCihe4BDH","Open")</f>
+        <v>Open</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
+      <c r="A7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqxzaR4KirE9vtg9VEGEqF_B6fK25MWk1uzFnb78KfPw5W1-AIriLj9ESACUqCQxaaIO35jQOyAf_qjvzCQ5JKRjEiFiVY3cLlTz43ZCwyZnLI#0","Open")</f>
+        <v>Open</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqxx4DuG0bVCj-_KGv_-pN7tOCsFqmCQGkDZPGXoMe7l8p7SxZL9FiRfQVapHxBbfzX-GuGQaTkQBKqosqoUmZOVRw6t6a3A6PwE2EvhfNy2Zd","Open")</f>
+        <v>Open</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx1pBU1TaURHOGpgcmRfqMr99AJLWcpUac9awjmeqkdyJQsVgmY25YlpHWsYRbLMCnFz825JtaSJFLYhBF16LnEGZrGZvPs9iEz18vkjo_wki","Open")</f>
+        <v>Open</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
+      <c r="A10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx8snmZA115neZsds8GgQzfqTrANESCDdRQ_pgv-Ju20uNBS9SmEuimec5wQ2y0BZonhZGoyVboEnfUiVYDqUqKBjAuTfTNeH_lGTSadlJY7-","Open")</f>
+        <v>Open</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f>HYPERLINK("https://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx5LrW9yQvoG3JLRCfJHvKlgFdzi0LNOKvZPKQWYMK6P-YmY22RPbVahaMEBdVzU2KC7toFmEnvTB0hbqlv-xZZT95PTZoA4TrawxBgDB2u2S#0","Open")</f>
+        <v>Open</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="14" t="str">
+        <f>HYPERLINK("https://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx5ZRfs2747uC4AtCjfQJderJPurP5OgNy9pw4S1sXJKuVRDbnY_eHoTq_rZGtmcGAkXKT_p9gmwfuFyhQsvXI6zbZTBRUiOd-jNTy52O8riU#0","Open")</f>
+        <v>Open</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="str">
+        <f>HYPERLINK("https://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqxzGJ5W-K6WiWJgOnzN2HkIXkfnml-qURVaKnF9N8HGfih3bbIlFnFzW-BOQ0Q8LUlKGlpzRBlvCKdx7aiT38YJiuHvmSi8nwUJiipzGL01_1#0","Open")</f>
+        <v>Open</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>34</v>
+      <c r="A14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="18" t="str">
         <f>HYPERLINK("http://people.bu.edu/staro/ToN-Emir.pdf","people.bu.edu")</f>
         <v>people.bu.edu</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="18" t="str">
         <f>HYPERLINK("https://core.ac.uk/download/pdf/37958973.pdf","core.ac.uk")</f>
         <v>core.ac.uk</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="24" t="str">
+      <c r="B16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="23" t="str">
         <f>HYPERLINK("https://core.ac.uk/download/pdf/52799053.pdf","core.ac.uk")</f>
         <v>core.ac.uk</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="24" t="str">
-        <f>HYPERLINK("http://core.ac.uk","core.ac.uk")</f>
+        <v>35</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="23" t="str">
+        <f>HYPERLINK("https://core.ac.uk/download/pdf/78061249.pdf","core.ac.uk")</f>
         <v>core.ac.uk</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="24" t="str">
+        <v>36</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="23" t="str">
         <f>HYPERLINK("http://irl.cse.tamu.edu/people/zain/papers/sigmetrics2014.pdf","irl.cse.tamu.edu")</f>
         <v>irl.cse.tamu.edu</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="24" t="str">
+      <c r="A19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="23" t="str">
         <f>HYPERLINK("https://ieeexplore.ieee.org/document/6917218/","ieeexplore.ieee.org")</f>
         <v>ieeexplore.ieee.org</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>34</v>
+      <c r="A20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="25" t="str">
         <f>HYPERLINK("http://inlab.lab.asu.edu/Publications/KanWanJar_16.pdf","inlab.lab.asu.edu")</f>
         <v>inlab.lab.asu.edu</v>
       </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="25" t="str">
         <f>HYPERLINK("http://users.ics.forth.gr/~nchrysos/papers/nchrysos_camera_ready_TON.pdf","users.ics.forth.gr")</f>
@@ -920,111 +934,111 @@
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="28" t="str">
         <f>HYPERLINK("http://joseyallouz.com/publications/sigmet0232-yallouz.pdf","joseyallouz.com")</f>
         <v>joseyallouz.com</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C27" s="30" t="str">
         <f>HYPERLINK("https://ieeexplore.ieee.org/document/6932501/","ieeexplore.ieee.org")</f>
@@ -1036,311 +1050,324 @@
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="32"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="14" t="str">
+        <f>HYPERLINK("https://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx1JplvN8F_wUd3uqViWG5hyicPHNn9JtdeIbzaB65JWlkYPMNQGj78_l2VawiL3FLpGyNclITCcagh7k1ykQhA5F-Sbb8rntXzdLU40qFw5k#0","Open")</f>
+        <v>Open</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="35" t="s">
+      <c r="B31" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqxxMjpONtEkbpgjpTE-lQ4poRc7gDFYw7MPUOCTkTmnwDipw7iJpGHVX7SsuTjdxQ09tDYujFaWv239h7aON93HIIucn3HyHXDY0Wkw3saOOH","Open")</f>
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="35" t="s">
+      <c r="B32" s="10" t="str">
+        <f>HYPERLINK("https://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx2V1wvqi3_XB_80T_sAF7-zEqh5NdmKUocqS5HOj8wN5pti-YkrrRAQ2Xwm4SAudbgW9JjusHiRshQQfILznSiCYPyK0VzibgS-g0Gk2YMIc#0","Open")</f>
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="36" t="s">
+      <c r="B33" s="10" t="str">
+        <f>HYPERLINK("https://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx4RaymFVvBziWg-J-skFTit8kxMC8wc8XrTzvfO3h4kAIwv6ol1gpUpzrnUVRp-luT5fR16U4XNEdF54U4j-pQCnCkFJcbFCIOWRH-q_Iqie#0","Open")</f>
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="37" t="s">
+      <c r="B34" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqxz3QD4iMzAXIiZlsiog3ECE-ijc_Z8PXwpTStniikPEEZhaB7spOakhCI5krtjDwUrC8HvS8KvOdffa9VOoEl-W2vcq9L1iHEcc7v6JMUa7H","Open")</f>
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>17</v>
+      <c r="B35" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx2JkRv4kSQJ8lIeHPvIifnt6jdKy7389PZsmSscgBx3TiCVY2Mi-b_m5kKlV8CULVCf3T9BBulaLeB0aalGnurjYPeCxmRPF7bVnywd7L4Yg","Open")</f>
+        <v>Open</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqxzxOdE86v6aC3S2ppFGHvfxpBj9b_oyDlLHhXJTvG1nIZvgzc7z_-sIHXtxjinifFJ6HJmVE4UyPiIfhpjoCNj-8WnYo07TT9bqcio4Hqakt#0","Open")</f>
+        <v>Open</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqxycxnrg6R1IlvTqkhlYRy-ifuYp6Tgs1MdGB0ppMQgpxFM8VpvTLYMtD8DdxUPGTOC-SCkKZPU7lqU_0tGAVw5aP0p3bm3AxlFSnGaUKi-ts","Open")</f>
+        <v>Open</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="10" t="str">
+        <f>HYPERLINK("https://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx4Bic_aKHdQf0iPzF5PAKkyFS7q6hsbrzlh5dXmE8y-uhMSOKMFgj_myMptq0E1u07oxxRz4oZ9mbH38arIQVAsAPSKvByUE2sXik7hXgl-O#0","Open")</f>
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="37" t="s">
+      <c r="B39" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx-rET5RJm-apn8vBgU9UJLrdmRrBJWfa4LrWJqxRNMXbs-7UKbn16bIjd_wZssZzQpD9jy1HB4GBDfyDy7LUzHEXVKINWWkiM8hNtBru5kWJ","Open")</f>
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="10" t="str">
+        <f>HYPERLINK("https://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqx3TmgzK5MX-YpTJpBlTwCVqdRkjmSxeF5xzlYbIujC1TwQksOEw78PlIMZATzYglDdvPo5yWmzYujpVp49F_TU9NdZIKnbLSw-06g4R9YK8i#0","Open")</f>
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="10" t="str">
+        <f>HYPERLINK("https://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqxyvjvTKa8TAGzpxzjM6pxeoAttrnXNKNQj9lME8NCnmD0yckcFNdfp15huMUTx10rXOiRC_Bcl-8vGsljoqpd54ew0HysLqBUnV-TrpDf1V6#0","Open")</f>
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>17</v>
+      <c r="B42" s="10" t="str">
+        <f>HYPERLINK("http://ndl.iitkgp.ac.in/document/AiKUntNYW4-jYCN-02sqxyckjJYKqRvAtRM3a_wVBm2pdJwuDm8mE_3Tay_TVyszhlq_5U8JZezLTFgO2B2ofjHbrJqaV-h0754mwEETQr-xKeq7jIF7ojP_9zXS9v6t","Open")</f>
+        <v>Open</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="38" t="str">
+        <v>32</v>
+      </c>
+      <c r="C43" s="36" t="str">
         <f>HYPERLINK("http://www.f-zhou.com/ta/2013_PAMI_CTW_Draft.pdf","f-zhou.com")</f>
         <v>f-zhou.com</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="35" t="s">
-        <v>66</v>
+      <c r="A44" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="39" t="str">
+        <v>32</v>
+      </c>
+      <c r="C44" s="37" t="str">
         <f>HYPERLINK("https://spiral.imperial.ac.uk/bitstream/10044/1/42292/8/Laplace%20Approximation%20for%20Divisive%20Gaussian%20Processes.pdf","spiral.imperial.ac.uk")</f>
         <v>spiral.imperial.ac.uk</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="37" t="s">
-        <v>67</v>
+      <c r="A45" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="38" t="str">
+        <v>32</v>
+      </c>
+      <c r="C45" s="36" t="str">
         <f>HYPERLINK("https://qmro.qmul.ac.uk/xmlui/bitstream/handle/123456789/10765/Gong%20-%20Towards%20Open-World%20Person%20Re-Identification%20(2015,%20Accepted%20version).pdf?sequence=2","qmro.qmul.ac.uk")</f>
         <v>qmro.qmul.ac.uk</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="37" t="s">
-        <v>68</v>
+      <c r="A46" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="38" t="str">
+        <v>32</v>
+      </c>
+      <c r="C46" s="36" t="str">
         <f>HYPERLINK("http://europepmc.org/articles/PMC4727970?pdf=render","europepmc.org")</f>
         <v>europepmc.org</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>69</v>
+      <c r="A47" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="38" t="str">
+        <v>39</v>
+      </c>
+      <c r="D47" s="36" t="str">
         <f>HYPERLINK("http://vipl.ict.ac.cn/homepage/mnkan/pdf/2016PAMIMvDA.pdf","vipl.ict.ac.cn")</f>
         <v>vipl.ict.ac.cn</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>70</v>
+      <c r="A48" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="38" t="str">
+        <v>39</v>
+      </c>
+      <c r="D48" s="36" t="str">
         <f>HYPERLINK("https://kilthub.cmu.edu/articles/Robust_Regression_/6560723/files/12043010.pdf","cmu.edu")</f>
         <v>cmu.edu</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="39" t="s">
         <v>71</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="27" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" s="38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="37" t="s">
+      <c r="B51" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="35" t="s">
+      <c r="B52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="37" t="s">
-        <v>77</v>
-      </c>
       <c r="B53" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1372,51 +1399,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>11.0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>6.0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>7.0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>1.0</v>
       </c>
       <c r="F2">
@@ -1445,19 +1472,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7">
         <v>13.0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>4.0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>5.0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>3.0</v>
       </c>
       <c r="F3">
@@ -1486,47 +1513,47 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="15"/>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
         <f t="shared" ref="C5:C6" si="8">B2+C2</f>
         <v>17</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <f t="shared" ref="D5:E5" si="7">D2</f>
         <v>7</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -1552,18 +1579,18 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <f t="shared" ref="D6:E6" si="9">D3</f>
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
@@ -1589,8 +1616,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:E7" si="15">SUM(C5:C6)</f>
